--- a/radar/datasources/malaria/malaria-threats-map-invasive-vector-species/data/MTM_INVASIVE_VECTOR_SPECIES_20250109.xlsx
+++ b/radar/datasources/malaria/malaria-threats-map-invasive-vector-species/data/MTM_INVASIVE_VECTOR_SPECIES_20250109.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_DED33D61501ACA62A3A81D88F663D2F38DEFF73D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75864E1-7AE7-49C6-90AE-32FB89AA4502}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="1" r:id="rId1"/>
@@ -6212,14 +6212,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6236,11 +6236,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U610"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>729</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>731</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>732</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>733</v>
       </c>
@@ -6517,7 +6519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>734</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>736</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>737</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>738</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>739</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>740</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>741</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>742</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>743</v>
       </c>
@@ -7036,7 +7038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>744</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>745</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>746</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>747</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>748</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>749</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>750</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>752</v>
       </c>
@@ -7490,7 +7492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>753</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>754</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>755</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>756</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>757</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>758</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>759</v>
       </c>
@@ -7861,7 +7863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>760</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>761</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>768</v>
       </c>
@@ -8020,7 +8022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>769</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>770</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>771</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>772</v>
       </c>
@@ -8232,7 +8234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>773</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>774</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>775</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>776</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>777</v>
       </c>
@@ -8497,7 +8499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>778</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>780</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>781</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>787</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>788</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>789</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>790</v>
       </c>
@@ -8880,7 +8882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>791</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>792</v>
       </c>
@@ -8986,7 +8988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>793</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>794</v>
       </c>
@@ -9092,7 +9094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>935</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>936</v>
       </c>
@@ -9210,7 +9212,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>937</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>938</v>
       </c>
@@ -9322,7 +9324,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>939</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>940</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>941</v>
       </c>
@@ -9499,7 +9501,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>942</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>943</v>
       </c>
@@ -9611,7 +9613,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1143</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1144</v>
       </c>
@@ -9723,7 +9725,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1145</v>
       </c>
@@ -9779,7 +9781,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1146</v>
       </c>
@@ -9835,7 +9837,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1147</v>
       </c>
@@ -9891,7 +9893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1148</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1149</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1150</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>715</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>716</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>717</v>
       </c>
@@ -10218,7 +10220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>718</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>719</v>
       </c>
@@ -10324,7 +10326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1127</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1128</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1129</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1130</v>
       </c>
@@ -10533,7 +10535,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1131</v>
       </c>
@@ -10583,7 +10585,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1132</v>
       </c>
@@ -10633,7 +10635,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1133</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1134</v>
       </c>
@@ -10733,7 +10735,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1135</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>952</v>
       </c>
@@ -10836,7 +10838,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>953</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>954</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>955</v>
       </c>
@@ -10995,7 +10997,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>956</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>957</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>958</v>
       </c>
@@ -11154,7 +11156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>959</v>
       </c>
@@ -11207,7 +11209,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>960</v>
       </c>
@@ -11260,7 +11262,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>662</v>
       </c>
@@ -11319,7 +11321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>676</v>
       </c>
@@ -11378,7 +11380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>677</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>678</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>679</v>
       </c>
@@ -11555,7 +11557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>695</v>
       </c>
@@ -11611,7 +11613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>696</v>
       </c>
@@ -11667,7 +11669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>697</v>
       </c>
@@ -11723,7 +11725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>698</v>
       </c>
@@ -11779,7 +11781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>699</v>
       </c>
@@ -11835,7 +11837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>700</v>
       </c>
@@ -11891,7 +11893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>701</v>
       </c>
@@ -11950,7 +11952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>702</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>703</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>704</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>705</v>
       </c>
@@ -12186,7 +12188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>711</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>712</v>
       </c>
@@ -12292,7 +12294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>713</v>
       </c>
@@ -12345,7 +12347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>714</v>
       </c>
@@ -12398,7 +12400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>720</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>721</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>722</v>
       </c>
@@ -12557,7 +12559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>723</v>
       </c>
@@ -12610,7 +12612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>588</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>590</v>
       </c>
@@ -12728,7 +12730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>591</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>592</v>
       </c>
@@ -12846,7 +12848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>593</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>594</v>
       </c>
@@ -12964,7 +12966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>595</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>596</v>
       </c>
@@ -13082,7 +13084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>597</v>
       </c>
@@ -13141,7 +13143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>598</v>
       </c>
@@ -13194,7 +13196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>599</v>
       </c>
@@ -13253,7 +13255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>600</v>
       </c>
@@ -13312,7 +13314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>601</v>
       </c>
@@ -13371,7 +13373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>602</v>
       </c>
@@ -13430,7 +13432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>603</v>
       </c>
@@ -13489,7 +13491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>604</v>
       </c>
@@ -13548,7 +13550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>605</v>
       </c>
@@ -13607,7 +13609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>606</v>
       </c>
@@ -13666,7 +13668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>607</v>
       </c>
@@ -13725,7 +13727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>608</v>
       </c>
@@ -13784,7 +13786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>609</v>
       </c>
@@ -13843,7 +13845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>615</v>
       </c>
@@ -13902,7 +13904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>616</v>
       </c>
@@ -13961,7 +13963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>617</v>
       </c>
@@ -14020,7 +14022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>618</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>624</v>
       </c>
@@ -14132,7 +14134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>625</v>
       </c>
@@ -14185,7 +14187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>626</v>
       </c>
@@ -14238,7 +14240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>627</v>
       </c>
@@ -14291,7 +14293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>633</v>
       </c>
@@ -14344,7 +14346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>634</v>
       </c>
@@ -14397,7 +14399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>635</v>
       </c>
@@ -14450,7 +14452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>642</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>643</v>
       </c>
@@ -14568,7 +14570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>644</v>
       </c>
@@ -14627,7 +14629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>645</v>
       </c>
@@ -14686,7 +14688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>646</v>
       </c>
@@ -14745,7 +14747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>647</v>
       </c>
@@ -14804,7 +14806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>648</v>
       </c>
@@ -14863,7 +14865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>649</v>
       </c>
@@ -14916,7 +14918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>650</v>
       </c>
@@ -14975,7 +14977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>651</v>
       </c>
@@ -15034,7 +15036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>652</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>653</v>
       </c>
@@ -15152,7 +15154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>628</v>
       </c>
@@ -15205,7 +15207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>629</v>
       </c>
@@ -15258,7 +15260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>630</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>631</v>
       </c>
@@ -15364,7 +15366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>632</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>619</v>
       </c>
@@ -15476,7 +15478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>620</v>
       </c>
@@ -15529,7 +15531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>621</v>
       </c>
@@ -15582,7 +15584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>622</v>
       </c>
@@ -15635,7 +15637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>623</v>
       </c>
@@ -15688,7 +15690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1096</v>
       </c>
@@ -15741,7 +15743,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1097</v>
       </c>
@@ -15794,7 +15796,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1098</v>
       </c>
@@ -15847,7 +15849,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1099</v>
       </c>
@@ -15900,7 +15902,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1100</v>
       </c>
@@ -15953,7 +15955,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1101</v>
       </c>
@@ -16006,7 +16008,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1102</v>
       </c>
@@ -16062,7 +16064,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1103</v>
       </c>
@@ -16118,7 +16120,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1104</v>
       </c>
@@ -16171,7 +16173,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1157</v>
       </c>
@@ -16227,7 +16229,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1158</v>
       </c>
@@ -16283,7 +16285,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1159</v>
       </c>
@@ -16339,7 +16341,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1160</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1161</v>
       </c>
@@ -16451,7 +16453,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>782</v>
       </c>
@@ -16504,7 +16506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>783</v>
       </c>
@@ -16557,7 +16559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>784</v>
       </c>
@@ -16610,7 +16612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>785</v>
       </c>
@@ -16669,7 +16671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>786</v>
       </c>
@@ -16728,7 +16730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1324</v>
       </c>
@@ -16781,7 +16783,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1331</v>
       </c>
@@ -16831,7 +16833,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1332</v>
       </c>
@@ -16881,7 +16883,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1334</v>
       </c>
@@ -16931,7 +16933,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>79</v>
       </c>
@@ -16987,7 +16989,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>81</v>
       </c>
@@ -17043,7 +17045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>83</v>
       </c>
@@ -17099,7 +17101,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>85</v>
       </c>
@@ -17155,7 +17157,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>542</v>
       </c>
@@ -17208,7 +17210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>544</v>
       </c>
@@ -17261,7 +17263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>546</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>552</v>
       </c>
@@ -17367,7 +17369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>553</v>
       </c>
@@ -17423,7 +17425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>554</v>
       </c>
@@ -17479,7 +17481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>555</v>
       </c>
@@ -17535,7 +17537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>572</v>
       </c>
@@ -17588,7 +17590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>575</v>
       </c>
@@ -17647,7 +17649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>576</v>
       </c>
@@ -17706,7 +17708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>577</v>
       </c>
@@ -17765,7 +17767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>579</v>
       </c>
@@ -17824,7 +17826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>580</v>
       </c>
@@ -17883,7 +17885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>581</v>
       </c>
@@ -17942,7 +17944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>582</v>
       </c>
@@ -18001,7 +18003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>583</v>
       </c>
@@ -18060,7 +18062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>584</v>
       </c>
@@ -18119,7 +18121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>585</v>
       </c>
@@ -18178,7 +18180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>586</v>
       </c>
@@ -18237,7 +18239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>587</v>
       </c>
@@ -18296,7 +18298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1112</v>
       </c>
@@ -18349,7 +18351,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1113</v>
       </c>
@@ -18402,7 +18404,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1114</v>
       </c>
@@ -18455,7 +18457,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1115</v>
       </c>
@@ -18508,7 +18510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1116</v>
       </c>
@@ -18561,7 +18563,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1117</v>
       </c>
@@ -18614,7 +18616,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1118</v>
       </c>
@@ -18667,7 +18669,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1119</v>
       </c>
@@ -18720,7 +18722,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1023</v>
       </c>
@@ -18776,7 +18778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1024</v>
       </c>
@@ -18832,7 +18834,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1025</v>
       </c>
@@ -18888,7 +18890,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1026</v>
       </c>
@@ -18944,7 +18946,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1027</v>
       </c>
@@ -19000,7 +19002,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1028</v>
       </c>
@@ -19056,7 +19058,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>654</v>
       </c>
@@ -19109,7 +19111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>655</v>
       </c>
@@ -19162,7 +19164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>656</v>
       </c>
@@ -19215,7 +19217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>446</v>
       </c>
@@ -19268,7 +19270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>447</v>
       </c>
@@ -19321,7 +19323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>448</v>
       </c>
@@ -19374,7 +19376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1029</v>
       </c>
@@ -19430,7 +19432,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1030</v>
       </c>
@@ -19486,7 +19488,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1031</v>
       </c>
@@ -19542,7 +19544,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1032</v>
       </c>
@@ -19598,7 +19600,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1033</v>
       </c>
@@ -19654,7 +19656,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1034</v>
       </c>
@@ -19710,7 +19712,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1035</v>
       </c>
@@ -19766,7 +19768,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1036</v>
       </c>
@@ -19822,7 +19824,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1037</v>
       </c>
@@ -19878,7 +19880,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1038</v>
       </c>
@@ -19934,7 +19936,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1039</v>
       </c>
@@ -19990,7 +19992,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1040</v>
       </c>
@@ -20046,7 +20048,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1041</v>
       </c>
@@ -20102,7 +20104,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1042</v>
       </c>
@@ -20155,7 +20157,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1043</v>
       </c>
@@ -20208,7 +20210,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="253" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1044</v>
       </c>
@@ -20261,7 +20263,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1045</v>
       </c>
@@ -20314,7 +20316,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1046</v>
       </c>
@@ -20367,7 +20369,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1056</v>
       </c>
@@ -20420,7 +20422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1057</v>
       </c>
@@ -20473,7 +20475,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1058</v>
       </c>
@@ -20526,7 +20528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1059</v>
       </c>
@@ -20579,7 +20581,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1060</v>
       </c>
@@ -20632,7 +20634,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="261" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1061</v>
       </c>
@@ -20685,7 +20687,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1062</v>
       </c>
@@ -20738,7 +20740,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="263" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1063</v>
       </c>
@@ -20791,7 +20793,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1072</v>
       </c>
@@ -20844,7 +20846,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1073</v>
       </c>
@@ -20897,7 +20899,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1074</v>
       </c>
@@ -20950,7 +20952,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1075</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1076</v>
       </c>
@@ -21056,7 +21058,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1077</v>
       </c>
@@ -21109,7 +21111,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1078</v>
       </c>
@@ -21162,7 +21164,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1088</v>
       </c>
@@ -21215,7 +21217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1089</v>
       </c>
@@ -21268,7 +21270,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1090</v>
       </c>
@@ -21321,7 +21323,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1091</v>
       </c>
@@ -21374,7 +21376,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1092</v>
       </c>
@@ -21427,7 +21429,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1093</v>
       </c>
@@ -21480,7 +21482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1094</v>
       </c>
@@ -21533,7 +21535,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1095</v>
       </c>
@@ -21586,7 +21588,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1105</v>
       </c>
@@ -21639,7 +21641,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1106</v>
       </c>
@@ -21692,7 +21694,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1107</v>
       </c>
@@ -21745,7 +21747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1108</v>
       </c>
@@ -21798,7 +21800,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1109</v>
       </c>
@@ -21851,7 +21853,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1110</v>
       </c>
@@ -21904,7 +21906,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1111</v>
       </c>
@@ -21957,7 +21959,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1120</v>
       </c>
@@ -22010,7 +22012,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1121</v>
       </c>
@@ -22063,7 +22065,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1122</v>
       </c>
@@ -22116,7 +22118,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1123</v>
       </c>
@@ -22169,7 +22171,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1124</v>
       </c>
@@ -22222,7 +22224,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1125</v>
       </c>
@@ -22278,7 +22280,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1126</v>
       </c>
@@ -22334,7 +22336,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1136</v>
       </c>
@@ -22384,7 +22386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1137</v>
       </c>
@@ -22434,7 +22436,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1138</v>
       </c>
@@ -22484,7 +22486,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1139</v>
       </c>
@@ -22534,7 +22536,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1140</v>
       </c>
@@ -22593,7 +22595,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="298" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1141</v>
       </c>
@@ -22652,7 +22654,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="299" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1142</v>
       </c>
@@ -22711,7 +22713,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="300" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1151</v>
       </c>
@@ -22767,7 +22769,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="301" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1152</v>
       </c>
@@ -22823,7 +22825,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="302" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1153</v>
       </c>
@@ -22879,7 +22881,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="303" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1154</v>
       </c>
@@ -22935,7 +22937,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="304" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1155</v>
       </c>
@@ -22991,7 +22993,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="305" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1156</v>
       </c>
@@ -23047,7 +23049,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="306" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1047</v>
       </c>
@@ -23100,7 +23102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="307" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1048</v>
       </c>
@@ -23153,7 +23155,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1049</v>
       </c>
@@ -23206,7 +23208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1050</v>
       </c>
@@ -23259,7 +23261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="310" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1051</v>
       </c>
@@ -23312,7 +23314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="311" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1052</v>
       </c>
@@ -23365,7 +23367,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="312" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1053</v>
       </c>
@@ -23418,7 +23420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="313" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1054</v>
       </c>
@@ -23471,7 +23473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="314" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1055</v>
       </c>
@@ -23524,7 +23526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>547</v>
       </c>
@@ -23577,7 +23579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>548</v>
       </c>
@@ -23630,7 +23632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>549</v>
       </c>
@@ -23683,7 +23685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>550</v>
       </c>
@@ -23736,7 +23738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>551</v>
       </c>
@@ -23789,7 +23791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>638</v>
       </c>
@@ -23842,7 +23844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>639</v>
       </c>
@@ -23895,7 +23897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>640</v>
       </c>
@@ -23954,7 +23956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>641</v>
       </c>
@@ -24013,7 +24015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>724</v>
       </c>
@@ -24066,7 +24068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>725</v>
       </c>
@@ -24119,7 +24121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>726</v>
       </c>
@@ -24172,7 +24174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>727</v>
       </c>
@@ -24225,7 +24227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>728</v>
       </c>
@@ -24278,7 +24280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>384</v>
       </c>
@@ -24331,7 +24333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>428</v>
       </c>
@@ -24384,7 +24386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>929</v>
       </c>
@@ -24443,7 +24445,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="332" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>930</v>
       </c>
@@ -24502,7 +24504,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>931</v>
       </c>
@@ -24555,7 +24557,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="334" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>932</v>
       </c>
@@ -24614,7 +24616,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>933</v>
       </c>
@@ -24673,7 +24675,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="336" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>934</v>
       </c>
@@ -24732,7 +24734,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>944</v>
       </c>
@@ -24785,7 +24787,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>945</v>
       </c>
@@ -24838,7 +24840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>946</v>
       </c>
@@ -24891,7 +24893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="340" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>947</v>
       </c>
@@ -24944,7 +24946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>948</v>
       </c>
@@ -24997,7 +24999,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="342" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>949</v>
       </c>
@@ -25050,7 +25052,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>950</v>
       </c>
@@ -25103,7 +25105,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>951</v>
       </c>
@@ -25156,7 +25158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="345" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>961</v>
       </c>
@@ -25215,7 +25217,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="346" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>962</v>
       </c>
@@ -25274,7 +25276,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="347" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>963</v>
       </c>
@@ -25333,7 +25335,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="348" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>964</v>
       </c>
@@ -25392,7 +25394,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="349" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>965</v>
       </c>
@@ -25451,7 +25453,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="350" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>966</v>
       </c>
@@ -25510,7 +25512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="351" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>967</v>
       </c>
@@ -25569,7 +25571,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>968</v>
       </c>
@@ -25628,7 +25630,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>969</v>
       </c>
@@ -25687,7 +25689,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>970</v>
       </c>
@@ -25746,7 +25748,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>971</v>
       </c>
@@ -25805,7 +25807,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>972</v>
       </c>
@@ -25864,7 +25866,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>973</v>
       </c>
@@ -25923,7 +25925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="358" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>974</v>
       </c>
@@ -25982,7 +25984,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="359" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>975</v>
       </c>
@@ -26041,7 +26043,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>976</v>
       </c>
@@ -26100,7 +26102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>977</v>
       </c>
@@ -26159,7 +26161,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>978</v>
       </c>
@@ -26218,7 +26220,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>979</v>
       </c>
@@ -26277,7 +26279,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="364" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>980</v>
       </c>
@@ -26336,7 +26338,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="365" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>981</v>
       </c>
@@ -26395,7 +26397,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="366" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>988</v>
       </c>
@@ -26451,7 +26453,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>989</v>
       </c>
@@ -26507,7 +26509,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>990</v>
       </c>
@@ -26563,7 +26565,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="369" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>991</v>
       </c>
@@ -26619,7 +26621,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>992</v>
       </c>
@@ -26675,7 +26677,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>993</v>
       </c>
@@ -26731,7 +26733,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="372" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>994</v>
       </c>
@@ -26787,7 +26789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>995</v>
       </c>
@@ -26843,7 +26845,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>996</v>
       </c>
@@ -26899,7 +26901,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="375" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>997</v>
       </c>
@@ -26955,7 +26957,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>998</v>
       </c>
@@ -27011,7 +27013,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>999</v>
       </c>
@@ -27067,7 +27069,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="378" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1000</v>
       </c>
@@ -27123,7 +27125,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1001</v>
       </c>
@@ -27179,7 +27181,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1002</v>
       </c>
@@ -27235,7 +27237,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="381" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1003</v>
       </c>
@@ -27291,7 +27293,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1004</v>
       </c>
@@ -27347,7 +27349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1005</v>
       </c>
@@ -27403,7 +27405,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1006</v>
       </c>
@@ -27459,7 +27461,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="385" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1007</v>
       </c>
@@ -27515,7 +27517,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1008</v>
       </c>
@@ -27571,7 +27573,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="387" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1009</v>
       </c>
@@ -27627,7 +27629,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1010</v>
       </c>
@@ -27683,7 +27685,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="389" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1011</v>
       </c>
@@ -27739,7 +27741,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1012</v>
       </c>
@@ -27795,7 +27797,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="391" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1013</v>
       </c>
@@ -27851,7 +27853,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="392" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1014</v>
       </c>
@@ -27907,7 +27909,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="393" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1015</v>
       </c>
@@ -27963,7 +27965,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1016</v>
       </c>
@@ -28019,7 +28021,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="395" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1017</v>
       </c>
@@ -28075,7 +28077,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="396" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1018</v>
       </c>
@@ -28131,7 +28133,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="397" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1019</v>
       </c>
@@ -28187,7 +28189,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="398" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1020</v>
       </c>
@@ -28243,7 +28245,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1021</v>
       </c>
@@ -28299,7 +28301,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="400" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1022</v>
       </c>
@@ -28355,7 +28357,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>860</v>
       </c>
@@ -28408,7 +28410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>861</v>
       </c>
@@ -28461,7 +28463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>862</v>
       </c>
@@ -28514,7 +28516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>863</v>
       </c>
@@ -28567,7 +28569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>864</v>
       </c>
@@ -28620,7 +28622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>865</v>
       </c>
@@ -28673,7 +28675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>866</v>
       </c>
@@ -28726,7 +28728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>867</v>
       </c>
@@ -28779,7 +28781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>868</v>
       </c>
@@ -28832,7 +28834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="410" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>869</v>
       </c>
@@ -28891,7 +28893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>870</v>
       </c>
@@ -28950,7 +28952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>871</v>
       </c>
@@ -29009,7 +29011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>872</v>
       </c>
@@ -29068,7 +29070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>873</v>
       </c>
@@ -29127,7 +29129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>874</v>
       </c>
@@ -29186,7 +29188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>875</v>
       </c>
@@ -29245,7 +29247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>876</v>
       </c>
@@ -29304,7 +29306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>877</v>
       </c>
@@ -29363,7 +29365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>878</v>
       </c>
@@ -29422,7 +29424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>879</v>
       </c>
@@ -29481,7 +29483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>880</v>
       </c>
@@ -29540,7 +29542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>881</v>
       </c>
@@ -29599,7 +29601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>882</v>
       </c>
@@ -29658,7 +29660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>883</v>
       </c>
@@ -29717,7 +29719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="425" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>884</v>
       </c>
@@ -29776,7 +29778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>885</v>
       </c>
@@ -29835,7 +29837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>886</v>
       </c>
@@ -29894,7 +29896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>887</v>
       </c>
@@ -29953,7 +29955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>888</v>
       </c>
@@ -30012,7 +30014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>889</v>
       </c>
@@ -30071,7 +30073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>890</v>
       </c>
@@ -30130,7 +30132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="432" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>891</v>
       </c>
@@ -30189,7 +30191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>892</v>
       </c>
@@ -30248,7 +30250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="434" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>893</v>
       </c>
@@ -30307,7 +30309,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="435" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>894</v>
       </c>
@@ -30366,7 +30368,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="436" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>895</v>
       </c>
@@ -30425,7 +30427,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>896</v>
       </c>
@@ -30484,7 +30486,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>897</v>
       </c>
@@ -30543,7 +30545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="439" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>898</v>
       </c>
@@ -30602,7 +30604,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="440" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>899</v>
       </c>
@@ -30661,7 +30663,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>900</v>
       </c>
@@ -30720,7 +30722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>901</v>
       </c>
@@ -30779,7 +30781,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>902</v>
       </c>
@@ -30838,7 +30840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>903</v>
       </c>
@@ -30897,7 +30899,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="445" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>904</v>
       </c>
@@ -30956,7 +30958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="446" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>905</v>
       </c>
@@ -31015,7 +31017,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="447" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>906</v>
       </c>
@@ -31074,7 +31076,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="448" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>907</v>
       </c>
@@ -31133,7 +31135,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="449" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>908</v>
       </c>
@@ -31192,7 +31194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="450" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>909</v>
       </c>
@@ -31251,7 +31253,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>910</v>
       </c>
@@ -31310,7 +31312,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>911</v>
       </c>
@@ -31369,7 +31371,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="453" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>912</v>
       </c>
@@ -31428,7 +31430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="454" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>913</v>
       </c>
@@ -31487,7 +31489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="455" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>914</v>
       </c>
@@ -31546,7 +31548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="456" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>915</v>
       </c>
@@ -31605,7 +31607,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="457" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>916</v>
       </c>
@@ -31664,7 +31666,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="458" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>917</v>
       </c>
@@ -31723,7 +31725,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="459" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>918</v>
       </c>
@@ -31782,7 +31784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="460" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>919</v>
       </c>
@@ -31841,7 +31843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="461" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>920</v>
       </c>
@@ -31900,7 +31902,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="462" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>921</v>
       </c>
@@ -31959,7 +31961,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="463" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>922</v>
       </c>
@@ -32018,7 +32020,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="464" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>923</v>
       </c>
@@ -32077,7 +32079,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="465" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>924</v>
       </c>
@@ -32136,7 +32138,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="466" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>925</v>
       </c>
@@ -32195,7 +32197,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>926</v>
       </c>
@@ -32254,7 +32256,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="468" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>927</v>
       </c>
@@ -32313,7 +32315,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="469" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>928</v>
       </c>
@@ -32372,7 +32374,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="470" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>982</v>
       </c>
@@ -32428,7 +32430,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="471" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>983</v>
       </c>
@@ -32484,7 +32486,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="472" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>984</v>
       </c>
@@ -32540,7 +32542,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="473" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>985</v>
       </c>
@@ -32596,7 +32598,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="474" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>986</v>
       </c>
@@ -32652,7 +32654,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="475" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>987</v>
       </c>
@@ -32708,7 +32710,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="476" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>610</v>
       </c>
@@ -32767,7 +32769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="477" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>611</v>
       </c>
@@ -32826,7 +32828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="478" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>612</v>
       </c>
@@ -32885,7 +32887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="479" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>613</v>
       </c>
@@ -32944,7 +32946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>614</v>
       </c>
@@ -33003,7 +33005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>263</v>
       </c>
@@ -33056,7 +33058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="482" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>795</v>
       </c>
@@ -33109,7 +33111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="483" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>796</v>
       </c>
@@ -33162,7 +33164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="484" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>797</v>
       </c>
@@ -33215,7 +33217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="485" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>798</v>
       </c>
@@ -33268,7 +33270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="486" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>799</v>
       </c>
@@ -33321,7 +33323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="487" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>800</v>
       </c>
@@ -33374,7 +33376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="488" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>801</v>
       </c>
@@ -33427,7 +33429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="489" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>802</v>
       </c>
@@ -33480,7 +33482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="490" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>803</v>
       </c>
@@ -33533,7 +33535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="491" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>804</v>
       </c>
@@ -33592,7 +33594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="492" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>805</v>
       </c>
@@ -33651,7 +33653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="493" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>806</v>
       </c>
@@ -33710,7 +33712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="494" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>807</v>
       </c>
@@ -33769,7 +33771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="495" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>808</v>
       </c>
@@ -33828,7 +33830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="496" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>809</v>
       </c>
@@ -33887,7 +33889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="497" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>810</v>
       </c>
@@ -33946,7 +33948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="498" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>811</v>
       </c>
@@ -33999,7 +34001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>812</v>
       </c>
@@ -34052,7 +34054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="500" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>813</v>
       </c>
@@ -34105,7 +34107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="501" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>814</v>
       </c>
@@ -34158,7 +34160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="502" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>815</v>
       </c>
@@ -34211,7 +34213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="503" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>826</v>
       </c>
@@ -34264,7 +34266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="504" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>827</v>
       </c>
@@ -34317,7 +34319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="505" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>828</v>
       </c>
@@ -34370,7 +34372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="506" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>829</v>
       </c>
@@ -34423,7 +34425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>830</v>
       </c>
@@ -34476,7 +34478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="508" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>831</v>
       </c>
@@ -34529,7 +34531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="509" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>832</v>
       </c>
@@ -34582,7 +34584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="510" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>833</v>
       </c>
@@ -34635,7 +34637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="511" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>834</v>
       </c>
@@ -34688,7 +34690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="512" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>835</v>
       </c>
@@ -34741,7 +34743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="513" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>836</v>
       </c>
@@ -34794,7 +34796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="514" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>842</v>
       </c>
@@ -34853,7 +34855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="515" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>843</v>
       </c>
@@ -34912,7 +34914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="516" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>844</v>
       </c>
@@ -34971,7 +34973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>845</v>
       </c>
@@ -35030,7 +35032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>846</v>
       </c>
@@ -35089,7 +35091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="519" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>847</v>
       </c>
@@ -35148,7 +35150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="520" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>848</v>
       </c>
@@ -35207,7 +35209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="521" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>849</v>
       </c>
@@ -35266,7 +35268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="522" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>850</v>
       </c>
@@ -35325,7 +35327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="523" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>851</v>
       </c>
@@ -35378,7 +35380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="524" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>852</v>
       </c>
@@ -35431,7 +35433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="525" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>853</v>
       </c>
@@ -35484,7 +35486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="526" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>854</v>
       </c>
@@ -35537,7 +35539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="527" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>855</v>
       </c>
@@ -35590,7 +35592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="528" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>856</v>
       </c>
@@ -35643,7 +35645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="529" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>857</v>
       </c>
@@ -35696,7 +35698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="530" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>858</v>
       </c>
@@ -35749,7 +35751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="531" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>859</v>
       </c>
@@ -35802,7 +35804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="532" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>1079</v>
       </c>
@@ -35855,7 +35857,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="533" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>1080</v>
       </c>
@@ -35908,7 +35910,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="534" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>1081</v>
       </c>
@@ -35961,7 +35963,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="535" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>1082</v>
       </c>
@@ -36014,7 +36016,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="536" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>1083</v>
       </c>
@@ -36067,7 +36069,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="537" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>1084</v>
       </c>
@@ -36120,7 +36122,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="538" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>1085</v>
       </c>
@@ -36173,7 +36175,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="539" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>1086</v>
       </c>
@@ -36226,7 +36228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="540" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>1087</v>
       </c>
@@ -36279,7 +36281,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="541" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>706</v>
       </c>
@@ -36338,7 +36340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="542" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>707</v>
       </c>
@@ -36397,7 +36399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="543" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>708</v>
       </c>
@@ -36456,7 +36458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="544" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>710</v>
       </c>
@@ -36509,7 +36511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="545" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>502</v>
       </c>
@@ -36562,7 +36564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="546" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>503</v>
       </c>
@@ -36615,7 +36617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="547" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>680</v>
       </c>
@@ -36674,7 +36676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="548" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>681</v>
       </c>
@@ -36733,7 +36735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="549" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>671</v>
       </c>
@@ -36786,7 +36788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="550" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>672</v>
       </c>
@@ -36839,7 +36841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="551" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>673</v>
       </c>
@@ -36892,7 +36894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="552" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>674</v>
       </c>
@@ -36945,7 +36947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="553" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>675</v>
       </c>
@@ -37004,7 +37006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="554" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>1064</v>
       </c>
@@ -37057,7 +37059,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="555" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>1065</v>
       </c>
@@ -37110,7 +37112,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="556" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>1066</v>
       </c>
@@ -37163,7 +37165,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="557" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>1067</v>
       </c>
@@ -37219,7 +37221,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="558" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>1068</v>
       </c>
@@ -37275,7 +37277,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="559" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>1069</v>
       </c>
@@ -37328,7 +37330,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="560" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>1070</v>
       </c>
@@ -37384,7 +37386,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="561" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>1071</v>
       </c>
@@ -37437,7 +37439,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="562" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>1162</v>
       </c>
@@ -37490,7 +37492,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="563" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>1163</v>
       </c>
@@ -37543,7 +37545,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="564" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>1164</v>
       </c>
@@ -37596,7 +37598,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="565" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>1165</v>
       </c>
@@ -37649,7 +37651,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>1166</v>
       </c>
@@ -37702,7 +37704,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="567" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>1167</v>
       </c>
@@ -37755,7 +37757,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="568" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>1270</v>
       </c>
@@ -37811,7 +37813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="569" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>1271</v>
       </c>
@@ -37867,7 +37869,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="570" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>1272</v>
       </c>
@@ -37923,7 +37925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="571" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>1273</v>
       </c>
@@ -37979,7 +37981,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="572" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>1274</v>
       </c>
@@ -38035,7 +38037,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="573" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>1275</v>
       </c>
@@ -38091,7 +38093,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="574" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>1276</v>
       </c>
@@ -38147,7 +38149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="575" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>1277</v>
       </c>
@@ -38203,7 +38205,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="576" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>1287</v>
       </c>
@@ -38259,7 +38261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="577" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>1288</v>
       </c>
@@ -38315,7 +38317,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="578" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>1289</v>
       </c>
@@ -38371,7 +38373,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="579" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>1290</v>
       </c>
@@ -38427,7 +38429,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="580" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>1291</v>
       </c>
@@ -38483,7 +38485,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="581" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>1293</v>
       </c>
@@ -38536,7 +38538,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="582" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>1294</v>
       </c>
@@ -38589,7 +38591,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="583" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>1296</v>
       </c>
@@ -38642,7 +38644,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="584" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>1297</v>
       </c>
@@ -38695,7 +38697,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>1298</v>
       </c>
@@ -38748,7 +38750,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>1299</v>
       </c>
@@ -38801,7 +38803,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="587" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>1302</v>
       </c>
@@ -38854,7 +38856,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="588" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>1306</v>
       </c>
@@ -38907,7 +38909,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="589" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>1308</v>
       </c>
@@ -38960,7 +38962,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="590" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>1315</v>
       </c>
@@ -39013,7 +39015,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="591" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>1317</v>
       </c>
@@ -39066,7 +39068,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="592" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>1321</v>
       </c>
@@ -39116,7 +39118,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="593" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>1278</v>
       </c>
@@ -39172,7 +39174,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="594" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>1279</v>
       </c>
@@ -39228,7 +39230,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="595" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>1280</v>
       </c>
@@ -39284,7 +39286,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="596" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>1281</v>
       </c>
@@ -39340,7 +39342,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="597" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>1282</v>
       </c>
@@ -39396,7 +39398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="598" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>1283</v>
       </c>
@@ -39452,7 +39454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="599" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>1284</v>
       </c>
@@ -39508,7 +39510,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="600" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>1285</v>
       </c>
@@ -39564,7 +39566,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="601" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>1286</v>
       </c>
@@ -39620,7 +39622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="602" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>1266</v>
       </c>
@@ -39676,7 +39678,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="603" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>1267</v>
       </c>
@@ -39732,7 +39734,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="604" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>1268</v>
       </c>
@@ -39788,7 +39790,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="605" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>1269</v>
       </c>
@@ -39844,7 +39846,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="606" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>449</v>
       </c>
@@ -39897,7 +39899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="607" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>450</v>
       </c>
@@ -39950,7 +39952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="608" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>451</v>
       </c>
@@ -40003,7 +40005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="609" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>452</v>
       </c>
@@ -40056,7 +40058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="610" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>453</v>
       </c>
@@ -40112,7 +40114,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:U610" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:U610 A1:F1 H1:U1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -40121,16 +40123,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B22" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1913</v>
       </c>
@@ -40138,7 +40140,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40146,7 +40148,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40154,7 +40156,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40162,7 +40164,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40170,7 +40172,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -40178,7 +40180,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40186,7 +40188,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -40194,7 +40196,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -40202,7 +40204,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -40210,7 +40212,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -40218,7 +40220,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -40226,7 +40228,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -40234,7 +40236,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -40242,7 +40244,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -40250,7 +40252,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -40258,7 +40260,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -40266,7 +40268,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1930</v>
       </c>
@@ -40274,7 +40276,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -40282,7 +40284,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -40290,7 +40292,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -40298,7 +40300,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
